--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumanpahari/Documents/Pycharm/College/FaceDetection/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279463A-FCEC-0146-8387-8D883FF3D962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="20120" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,36 +22,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>tomjof</t>
-  </si>
-  <si>
-    <t>cval12</t>
-  </si>
-  <si>
-    <t>dell123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prateek@gmail.com </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>rahul@gmail.com</t>
   </si>
   <si>
     <t>meghna@gmail.com</t>
   </si>
+  <si>
+    <t>prateek@gmail.com</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,6 +95,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -145,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,80 +422,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumanpahari/Documents/Pycharm/College/FaceDetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279463A-FCEC-0146-8387-8D883FF3D962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB66BC5-735D-8D4F-A049-43FB88814B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="20120" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>rahul@gmail.com</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>UserId</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,36 +438,48 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1234</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>12345</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>123</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumanpahari/Documents/Pycharm/College/FaceDetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB66BC5-735D-8D4F-A049-43FB88814B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0007431D-88E4-3B43-A616-0C0B756ED2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="20120" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1234</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>12345</v>
+        <v>123</v>
       </c>
       <c r="C3">
         <v>2</v>
